--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2477,28 +2477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1169.581373573051</v>
+        <v>1252.811995863677</v>
       </c>
       <c r="AB2" t="n">
-        <v>1600.272833611226</v>
+        <v>1714.152642905168</v>
       </c>
       <c r="AC2" t="n">
-        <v>1447.545040368399</v>
+        <v>1550.556320494643</v>
       </c>
       <c r="AD2" t="n">
-        <v>1169581.373573051</v>
+        <v>1252811.995863677</v>
       </c>
       <c r="AE2" t="n">
-        <v>1600272.833611226</v>
+        <v>1714152.642905168</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.247183476874912e-06</v>
+        <v>2.108425548163214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.24565972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1447545.040368398</v>
+        <v>1550556.320494643</v>
       </c>
     </row>
     <row r="3">
@@ -2583,28 +2583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>560.4799038156521</v>
+        <v>612.4670734925356</v>
       </c>
       <c r="AB3" t="n">
-        <v>766.8733310288144</v>
+        <v>838.0044700927847</v>
       </c>
       <c r="AC3" t="n">
-        <v>693.6840166289037</v>
+        <v>758.0264996137892</v>
       </c>
       <c r="AD3" t="n">
-        <v>560479.903815652</v>
+        <v>612467.0734925356</v>
       </c>
       <c r="AE3" t="n">
-        <v>766873.3310288144</v>
+        <v>838004.4700927847</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.959472947235647e-06</v>
+        <v>3.312586238905628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.34071180555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>693684.0166289037</v>
+        <v>758026.4996137891</v>
       </c>
     </row>
     <row r="4">
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>449.5907262935119</v>
+        <v>491.2487526203864</v>
       </c>
       <c r="AB4" t="n">
-        <v>615.1498662577762</v>
+        <v>672.1482157006203</v>
       </c>
       <c r="AC4" t="n">
-        <v>556.4408263903931</v>
+        <v>607.999333360098</v>
       </c>
       <c r="AD4" t="n">
-        <v>449590.7262935119</v>
+        <v>491248.7526203864</v>
       </c>
       <c r="AE4" t="n">
-        <v>615149.8662577763</v>
+        <v>672148.2157006203</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.232475229492141e-06</v>
+        <v>3.774110142396362e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.075520833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>556440.8263903931</v>
+        <v>607999.3333600981</v>
       </c>
     </row>
     <row r="5">
@@ -2795,28 +2795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>387.8127381412012</v>
+        <v>429.3854236135039</v>
       </c>
       <c r="AB5" t="n">
-        <v>530.6224974153002</v>
+        <v>587.5040797359464</v>
       </c>
       <c r="AC5" t="n">
-        <v>479.9806309953356</v>
+        <v>531.4335149331017</v>
       </c>
       <c r="AD5" t="n">
-        <v>387812.7381412012</v>
+        <v>429385.4236135039</v>
       </c>
       <c r="AE5" t="n">
-        <v>530622.4974153002</v>
+        <v>587504.0797359465</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.386155720803423e-06</v>
+        <v>4.033914638000244e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.491753472222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>479980.6309953356</v>
+        <v>531433.5149331017</v>
       </c>
     </row>
     <row r="6">
@@ -2901,28 +2901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>366.1522107341748</v>
+        <v>407.7248962064776</v>
       </c>
       <c r="AB6" t="n">
-        <v>500.9856082219802</v>
+        <v>557.8671905426264</v>
       </c>
       <c r="AC6" t="n">
-        <v>453.1722449109909</v>
+        <v>504.6251288487569</v>
       </c>
       <c r="AD6" t="n">
-        <v>366152.2107341748</v>
+        <v>407724.8962064777</v>
       </c>
       <c r="AE6" t="n">
-        <v>500985.6082219802</v>
+        <v>557867.1905426264</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.444882955939994e-06</v>
+        <v>4.133195942820925e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.287760416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>453172.2449109909</v>
+        <v>504625.1288487569</v>
       </c>
     </row>
     <row r="7">
@@ -3007,28 +3007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>365.3533452872059</v>
+        <v>406.9260307595086</v>
       </c>
       <c r="AB7" t="n">
-        <v>499.892565273981</v>
+        <v>556.7741475946274</v>
       </c>
       <c r="AC7" t="n">
-        <v>452.1835204478533</v>
+        <v>503.6364043856194</v>
       </c>
       <c r="AD7" t="n">
-        <v>365353.3452872059</v>
+        <v>406926.0307595086</v>
       </c>
       <c r="AE7" t="n">
-        <v>499892.565273981</v>
+        <v>556774.1475946273</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.450578283989805e-06</v>
+        <v>4.142824177469672e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.268229166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>452183.5204478533</v>
+        <v>503636.4043856194</v>
       </c>
     </row>
   </sheetData>
@@ -3304,28 +3304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>807.478616020397</v>
+        <v>878.1125909274178</v>
       </c>
       <c r="AB2" t="n">
-        <v>1104.82786588147</v>
+        <v>1201.472386500302</v>
       </c>
       <c r="AC2" t="n">
-        <v>999.3846449973906</v>
+        <v>1086.805548209798</v>
       </c>
       <c r="AD2" t="n">
-        <v>807478.6160203971</v>
+        <v>878112.5909274179</v>
       </c>
       <c r="AE2" t="n">
-        <v>1104827.86588147</v>
+        <v>1201472.386500302</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.536487789212928e-06</v>
+        <v>2.660875736466529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.64149305555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>999384.6449973907</v>
+        <v>1086805.548209798</v>
       </c>
     </row>
     <row r="3">
@@ -3410,28 +3410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>442.0823834403145</v>
+        <v>492.5352226596151</v>
       </c>
       <c r="AB3" t="n">
-        <v>604.8766203213228</v>
+        <v>673.9084207633457</v>
       </c>
       <c r="AC3" t="n">
-        <v>547.1480446275235</v>
+        <v>609.5915469221003</v>
       </c>
       <c r="AD3" t="n">
-        <v>442082.3834403144</v>
+        <v>492535.2226596151</v>
       </c>
       <c r="AE3" t="n">
-        <v>604876.6203213228</v>
+        <v>673908.4207633457</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.20186774771732e-06</v>
+        <v>3.81317476516391e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.520399305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>547148.0446275235</v>
+        <v>609591.5469221002</v>
       </c>
     </row>
     <row r="4">
@@ -3516,28 +3516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>355.3096756744123</v>
+        <v>395.7572879044245</v>
       </c>
       <c r="AB4" t="n">
-        <v>486.1503734143257</v>
+        <v>541.4925808901417</v>
       </c>
       <c r="AC4" t="n">
-        <v>439.7528640919962</v>
+        <v>489.8132889595963</v>
       </c>
       <c r="AD4" t="n">
-        <v>355309.6756744123</v>
+        <v>395757.2879044245</v>
       </c>
       <c r="AE4" t="n">
-        <v>486150.3734143256</v>
+        <v>541492.5808901417</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.455212446680452e-06</v>
+        <v>4.251914836621773e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.537326388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>439752.8640919962</v>
+        <v>489813.2889595962</v>
       </c>
     </row>
     <row r="5">
@@ -3622,28 +3622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>338.5010467333313</v>
+        <v>378.7780667627513</v>
       </c>
       <c r="AB5" t="n">
-        <v>463.1520657527653</v>
+        <v>518.2608614537344</v>
       </c>
       <c r="AC5" t="n">
-        <v>418.9494826353276</v>
+        <v>468.7987722202766</v>
       </c>
       <c r="AD5" t="n">
-        <v>338501.0467333313</v>
+        <v>378778.0667627513</v>
       </c>
       <c r="AE5" t="n">
-        <v>463152.0657527653</v>
+        <v>518260.8614537343</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.51268103069992e-06</v>
+        <v>4.351438413639474e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.342013888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>418949.4826353276</v>
+        <v>468798.7722202766</v>
       </c>
     </row>
     <row r="6">
@@ -3728,28 +3728,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>339.9259211528434</v>
+        <v>380.2029411822633</v>
       </c>
       <c r="AB6" t="n">
-        <v>465.1016417945646</v>
+        <v>520.2104374955336</v>
       </c>
       <c r="AC6" t="n">
-        <v>420.7129938759447</v>
+        <v>470.5622834608938</v>
       </c>
       <c r="AD6" t="n">
-        <v>339925.9211528434</v>
+        <v>380202.9411822633</v>
       </c>
       <c r="AE6" t="n">
-        <v>465101.6417945646</v>
+        <v>520210.4374955336</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.511811758000466e-06</v>
+        <v>4.34993301499551e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.344184027777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>420712.9938759447</v>
+        <v>470562.2834608938</v>
       </c>
     </row>
   </sheetData>
@@ -4025,28 +4025,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>313.3266684541184</v>
+        <v>358.732904317103</v>
       </c>
       <c r="AB2" t="n">
-        <v>428.7073707759598</v>
+        <v>490.8341858654442</v>
       </c>
       <c r="AC2" t="n">
-        <v>387.7921410036753</v>
+        <v>443.9896600565519</v>
       </c>
       <c r="AD2" t="n">
-        <v>313326.6684541184</v>
+        <v>358732.904317103</v>
       </c>
       <c r="AE2" t="n">
-        <v>428707.3707759598</v>
+        <v>490834.1858654442</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.482506494930921e-06</v>
+        <v>4.697436498285718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.420572916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>387792.1410036753</v>
+        <v>443989.6600565519</v>
       </c>
     </row>
     <row r="3">
@@ -4131,28 +4131,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.7266856932</v>
+        <v>332.1882376526125</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.6262979060314</v>
+        <v>454.5146018670448</v>
       </c>
       <c r="AC3" t="n">
-        <v>366.0093319304548</v>
+        <v>411.1363661801036</v>
       </c>
       <c r="AD3" t="n">
-        <v>295726.6856932</v>
+        <v>332188.2376526125</v>
       </c>
       <c r="AE3" t="n">
-        <v>404626.2979060314</v>
+        <v>454514.6018670448</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.576918046965283e-06</v>
+        <v>4.876083471130134e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.075520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>366009.3319304548</v>
+        <v>411136.3661801036</v>
       </c>
     </row>
   </sheetData>
@@ -4428,28 +4428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>448.2292264539337</v>
+        <v>505.1236702731968</v>
       </c>
       <c r="AB2" t="n">
-        <v>613.2870021121315</v>
+        <v>691.1324901513614</v>
       </c>
       <c r="AC2" t="n">
-        <v>554.7557513842625</v>
+        <v>625.1717753018568</v>
       </c>
       <c r="AD2" t="n">
-        <v>448229.2264539337</v>
+        <v>505123.6702731968</v>
       </c>
       <c r="AE2" t="n">
-        <v>613287.0021121316</v>
+        <v>691132.4901513613</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.100467988499508e-06</v>
+        <v>3.826596506372648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.65321180555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>554755.7513842625</v>
+        <v>625171.7753018568</v>
       </c>
     </row>
     <row r="3">
@@ -4534,28 +4534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.5093480166723</v>
+        <v>349.907161056963</v>
       </c>
       <c r="AB3" t="n">
-        <v>413.9066357269494</v>
+        <v>478.7584145726078</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.4039673347804</v>
+        <v>433.0663834274525</v>
       </c>
       <c r="AD3" t="n">
-        <v>302509.3480166723</v>
+        <v>349907.161056963</v>
       </c>
       <c r="AE3" t="n">
-        <v>413906.6357269494</v>
+        <v>478758.4145726078</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.57887813314106e-06</v>
+        <v>4.69815589129161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.676215277777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>374403.9673347804</v>
+        <v>433066.3834274525</v>
       </c>
     </row>
     <row r="4">
@@ -4640,28 +4640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>302.9835509407414</v>
+        <v>350.3813639810321</v>
       </c>
       <c r="AB4" t="n">
-        <v>414.5554610880172</v>
+        <v>479.4072399336757</v>
       </c>
       <c r="AC4" t="n">
-        <v>374.9908697140199</v>
+        <v>433.6532858066922</v>
       </c>
       <c r="AD4" t="n">
-        <v>302983.5509407414</v>
+        <v>350381.363981032</v>
       </c>
       <c r="AE4" t="n">
-        <v>414555.4610880172</v>
+        <v>479407.2399336757</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.58289925289128e-06</v>
+        <v>4.705481498190713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.663194444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>374990.8697140199</v>
+        <v>433653.2858066922</v>
       </c>
     </row>
   </sheetData>
@@ -4937,28 +4937,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.0513608745077</v>
+        <v>328.0646107098444</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.6516034101182</v>
+        <v>448.8724735623682</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.5592398566071</v>
+        <v>406.0327146820484</v>
       </c>
       <c r="AD2" t="n">
-        <v>284051.3608745078</v>
+        <v>328064.6107098444</v>
       </c>
       <c r="AE2" t="n">
-        <v>388651.6034101182</v>
+        <v>448872.4735623682</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.522212855547416e-06</v>
+        <v>4.942724538711316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.631076388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>351559.239856607</v>
+        <v>406032.7146820484</v>
       </c>
     </row>
     <row r="3">
@@ -5043,28 +5043,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>286.1748742865147</v>
+        <v>330.1881241218513</v>
       </c>
       <c r="AB3" t="n">
-        <v>391.5570881432261</v>
+        <v>451.7779582954759</v>
       </c>
       <c r="AC3" t="n">
-        <v>354.1874292046604</v>
+        <v>408.6609040301018</v>
       </c>
       <c r="AD3" t="n">
-        <v>286174.8742865147</v>
+        <v>330188.1241218513</v>
       </c>
       <c r="AE3" t="n">
-        <v>391557.0881432261</v>
+        <v>451777.9582954759</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.522324789726423e-06</v>
+        <v>4.942943893636925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.631076388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>354187.4292046604</v>
+        <v>408660.9040301018</v>
       </c>
     </row>
   </sheetData>
@@ -5340,28 +5340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>888.5355963791479</v>
+        <v>959.68029046324</v>
       </c>
       <c r="AB2" t="n">
-        <v>1215.733602389907</v>
+        <v>1313.076911518147</v>
       </c>
       <c r="AC2" t="n">
-        <v>1099.705693670641</v>
+        <v>1187.758693997874</v>
       </c>
       <c r="AD2" t="n">
-        <v>888535.596379148</v>
+        <v>959680.29046324</v>
       </c>
       <c r="AE2" t="n">
-        <v>1215733.602389907</v>
+        <v>1313076.911518147</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.460181624354485e-06</v>
+        <v>2.51221504393107e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.22526041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1099705.693670641</v>
+        <v>1187758.693997874</v>
       </c>
     </row>
     <row r="3">
@@ -5446,28 +5446,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>468.8177933668223</v>
+        <v>519.6963258169027</v>
       </c>
       <c r="AB3" t="n">
-        <v>641.4571876658131</v>
+        <v>711.0714403664488</v>
       </c>
       <c r="AC3" t="n">
-        <v>580.2374139658044</v>
+        <v>643.2077800929087</v>
       </c>
       <c r="AD3" t="n">
-        <v>468817.7933668223</v>
+        <v>519696.3258169027</v>
       </c>
       <c r="AE3" t="n">
-        <v>641457.1876658131</v>
+        <v>711071.4403664487</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.136143776513867e-06</v>
+        <v>3.675195223560124e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.724392361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>580237.4139658044</v>
+        <v>643207.7800929087</v>
       </c>
     </row>
     <row r="4">
@@ -5552,28 +5552,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>376.4036794942208</v>
+        <v>427.1968710897296</v>
       </c>
       <c r="AB4" t="n">
-        <v>515.0121200423575</v>
+        <v>584.5096056207955</v>
       </c>
       <c r="AC4" t="n">
-        <v>465.8600861295644</v>
+        <v>528.7248292247299</v>
       </c>
       <c r="AD4" t="n">
-        <v>376403.6794942208</v>
+        <v>427196.8710897296</v>
       </c>
       <c r="AE4" t="n">
-        <v>515012.1200423576</v>
+        <v>584509.6056207955</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.396975957855458e-06</v>
+        <v>4.123952089814609e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.665364583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>465860.0861295644</v>
+        <v>528724.8292247299</v>
       </c>
     </row>
     <row r="5">
@@ -5658,28 +5658,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>346.2720169116222</v>
+        <v>386.889591525666</v>
       </c>
       <c r="AB5" t="n">
-        <v>473.7846499817116</v>
+        <v>529.3594074895708</v>
       </c>
       <c r="AC5" t="n">
-        <v>428.5673079483888</v>
+        <v>478.8380885993601</v>
       </c>
       <c r="AD5" t="n">
-        <v>346272.0169116223</v>
+        <v>386889.5915256661</v>
       </c>
       <c r="AE5" t="n">
-        <v>473784.6499817116</v>
+        <v>529359.4074895708</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.492694189540445e-06</v>
+        <v>4.288633508623595e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>428567.3079483888</v>
+        <v>478838.0885993601</v>
       </c>
     </row>
     <row r="6">
@@ -5764,28 +5764,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>347.0095617935185</v>
+        <v>387.6271364075623</v>
       </c>
       <c r="AB6" t="n">
-        <v>474.7937914273057</v>
+        <v>530.3685489351649</v>
       </c>
       <c r="AC6" t="n">
-        <v>429.4801383507544</v>
+        <v>479.7509190017255</v>
       </c>
       <c r="AD6" t="n">
-        <v>347009.5617935185</v>
+        <v>387627.1364075623</v>
       </c>
       <c r="AE6" t="n">
-        <v>474793.7914273057</v>
+        <v>530368.5489351649</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.494417117710775e-06</v>
+        <v>4.291597774162156e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.326822916666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>429480.1383507544</v>
+        <v>479750.9190017255</v>
       </c>
     </row>
   </sheetData>
@@ -6061,28 +6061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>289.490973441706</v>
+        <v>332.4930995102918</v>
       </c>
       <c r="AB2" t="n">
-        <v>396.0943213033284</v>
+        <v>454.9317273102777</v>
       </c>
       <c r="AC2" t="n">
-        <v>358.2916352000095</v>
+        <v>411.5136817564734</v>
       </c>
       <c r="AD2" t="n">
-        <v>289490.973441706</v>
+        <v>332493.0995102918</v>
       </c>
       <c r="AE2" t="n">
-        <v>396094.3213033284</v>
+        <v>454931.7273102776</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.455180208003017e-06</v>
+        <v>4.921802480411247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.12586805555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>358291.6352000094</v>
+        <v>411513.6817564734</v>
       </c>
     </row>
   </sheetData>
@@ -6358,28 +6358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>615.1030979901536</v>
+        <v>673.9033571100229</v>
       </c>
       <c r="AB2" t="n">
-        <v>841.6111951036189</v>
+        <v>922.0643037157748</v>
       </c>
       <c r="AC2" t="n">
-        <v>761.2890038516598</v>
+        <v>834.0637806945189</v>
       </c>
       <c r="AD2" t="n">
-        <v>615103.0979901536</v>
+        <v>673903.3571100228</v>
       </c>
       <c r="AE2" t="n">
-        <v>841611.1951036189</v>
+        <v>922064.3037157748</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.793131241710141e-06</v>
+        <v>3.175768671092294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.04427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>761289.0038516598</v>
+        <v>834063.7806945188</v>
       </c>
     </row>
     <row r="3">
@@ -6464,28 +6464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.4087684226048</v>
+        <v>406.3946862896079</v>
       </c>
       <c r="AB3" t="n">
-        <v>489.0224447178388</v>
+        <v>556.0471386496455</v>
       </c>
       <c r="AC3" t="n">
-        <v>442.3508289412793</v>
+        <v>502.9787801539832</v>
       </c>
       <c r="AD3" t="n">
-        <v>357408.7684226048</v>
+        <v>406394.6862896079</v>
       </c>
       <c r="AE3" t="n">
-        <v>489022.4447178388</v>
+        <v>556047.1386496455</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.412900450510338e-06</v>
+        <v>4.273425993005984e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.949652777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>442350.8289412793</v>
+        <v>502978.7801539832</v>
       </c>
     </row>
     <row r="4">
@@ -6570,28 +6570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>320.722063533545</v>
+        <v>359.8938191647842</v>
       </c>
       <c r="AB4" t="n">
-        <v>438.8260765854358</v>
+        <v>492.4226007759901</v>
       </c>
       <c r="AC4" t="n">
-        <v>396.9451317323877</v>
+        <v>445.4264788773896</v>
       </c>
       <c r="AD4" t="n">
-        <v>320722.063533545</v>
+        <v>359893.8191647842</v>
       </c>
       <c r="AE4" t="n">
-        <v>438826.0765854358</v>
+        <v>492422.6007759901</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.549134240948275e-06</v>
+        <v>4.514706158982196e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.472222222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>396945.1317323877</v>
+        <v>445426.4788773896</v>
       </c>
     </row>
     <row r="5">
@@ -6676,28 +6676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>322.6249053440466</v>
+        <v>361.7966609752858</v>
       </c>
       <c r="AB5" t="n">
-        <v>441.4296286980201</v>
+        <v>495.0261528885743</v>
       </c>
       <c r="AC5" t="n">
-        <v>399.3002044854553</v>
+        <v>447.7815516304572</v>
       </c>
       <c r="AD5" t="n">
-        <v>322624.9053440467</v>
+        <v>361796.6609752858</v>
       </c>
       <c r="AE5" t="n">
-        <v>441429.6286980201</v>
+        <v>495026.1528885743</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.54774105390216e-06</v>
+        <v>4.512238721200117e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.4765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>399300.2044854553</v>
+        <v>447781.5516304572</v>
       </c>
     </row>
   </sheetData>
@@ -6973,28 +6973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>744.043581791636</v>
+        <v>804.056821463141</v>
       </c>
       <c r="AB2" t="n">
-        <v>1018.033253493482</v>
+        <v>1100.146015609311</v>
       </c>
       <c r="AC2" t="n">
-        <v>920.8735885987081</v>
+        <v>995.1496239441881</v>
       </c>
       <c r="AD2" t="n">
-        <v>744043.5817916361</v>
+        <v>804056.821463141</v>
       </c>
       <c r="AE2" t="n">
-        <v>1018033.253493482</v>
+        <v>1100146.015609311</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.614654105712983e-06</v>
+        <v>2.815815770051619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.10546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>920873.5885987082</v>
+        <v>995149.6239441881</v>
       </c>
     </row>
     <row r="3">
@@ -7079,28 +7079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.2668169914662</v>
+        <v>467.1071832600022</v>
       </c>
       <c r="AB3" t="n">
-        <v>570.922867520483</v>
+        <v>639.1166554508701</v>
       </c>
       <c r="AC3" t="n">
-        <v>516.4347903396044</v>
+        <v>578.1202588604979</v>
       </c>
       <c r="AD3" t="n">
-        <v>417266.8169914662</v>
+        <v>467107.1832600022</v>
       </c>
       <c r="AE3" t="n">
-        <v>570922.867520483</v>
+        <v>639116.6554508701</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.268608519180193e-06</v>
+        <v>3.956255164359361e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.327256944444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>516434.7903396045</v>
+        <v>578120.2588604979</v>
       </c>
     </row>
     <row r="4">
@@ -7185,28 +7185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>339.1190260528588</v>
+        <v>379.0425414821409</v>
       </c>
       <c r="AB4" t="n">
-        <v>463.9976123210664</v>
+        <v>518.6227274326043</v>
       </c>
       <c r="AC4" t="n">
-        <v>419.714331425882</v>
+        <v>469.1261022180052</v>
       </c>
       <c r="AD4" t="n">
-        <v>339119.0260528589</v>
+        <v>379042.5414821409</v>
       </c>
       <c r="AE4" t="n">
-        <v>463997.6123210664</v>
+        <v>518622.7274326043</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.501446321380833e-06</v>
+        <v>4.362303960185646e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.459201388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>419714.331425882</v>
+        <v>469126.1022180052</v>
       </c>
     </row>
     <row r="5">
@@ -7291,28 +7291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>334.2014886393004</v>
+        <v>374.1250040685823</v>
       </c>
       <c r="AB5" t="n">
-        <v>457.2692206853962</v>
+        <v>511.8943357969341</v>
       </c>
       <c r="AC5" t="n">
-        <v>413.6280880445632</v>
+        <v>463.0398588366864</v>
       </c>
       <c r="AD5" t="n">
-        <v>334201.4886393003</v>
+        <v>374125.0040685823</v>
       </c>
       <c r="AE5" t="n">
-        <v>457269.2206853962</v>
+        <v>511894.3357969341</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.522897040176537e-06</v>
+        <v>4.399712140705655e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.387586805555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>413628.0880445632</v>
+        <v>463039.8588366865</v>
       </c>
     </row>
   </sheetData>
@@ -7588,28 +7588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1063.622301527571</v>
+        <v>1146.321704118365</v>
       </c>
       <c r="AB2" t="n">
-        <v>1455.294956654257</v>
+        <v>1568.447927719131</v>
       </c>
       <c r="AC2" t="n">
-        <v>1316.403648510474</v>
+        <v>1418.757458828109</v>
       </c>
       <c r="AD2" t="n">
-        <v>1063622.301527571</v>
+        <v>1146321.704118365</v>
       </c>
       <c r="AE2" t="n">
-        <v>1455294.956654257</v>
+        <v>1568447.927719131</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.31531497263209e-06</v>
+        <v>2.235948279161233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.52734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1316403.648510474</v>
+        <v>1418757.458828109</v>
       </c>
     </row>
     <row r="3">
@@ -7694,28 +7694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>532.5134909759663</v>
+        <v>584.1153662491926</v>
       </c>
       <c r="AB3" t="n">
-        <v>728.6084511904984</v>
+        <v>799.2124134533954</v>
       </c>
       <c r="AC3" t="n">
-        <v>659.0710832172606</v>
+        <v>722.9367024150698</v>
       </c>
       <c r="AD3" t="n">
-        <v>532513.4909759663</v>
+        <v>584115.3662491925</v>
       </c>
       <c r="AE3" t="n">
-        <v>728608.4511904984</v>
+        <v>799212.4134533954</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.016075940449673e-06</v>
+        <v>3.427195480551798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.13020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>659071.0832172605</v>
+        <v>722936.7024150698</v>
       </c>
     </row>
     <row r="4">
@@ -7800,28 +7800,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>417.6654332956655</v>
+        <v>469.2672190603406</v>
       </c>
       <c r="AB4" t="n">
-        <v>571.4682719335987</v>
+        <v>642.0721117269471</v>
       </c>
       <c r="AC4" t="n">
-        <v>516.9281421210123</v>
+        <v>580.7936505375951</v>
       </c>
       <c r="AD4" t="n">
-        <v>417665.4332956655</v>
+        <v>469267.2190603406</v>
       </c>
       <c r="AE4" t="n">
-        <v>571468.2719335987</v>
+        <v>642072.1117269471</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.286837329707152e-06</v>
+        <v>3.887471897205123e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.930121527777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>516928.1421210123</v>
+        <v>580793.6505375952</v>
       </c>
     </row>
     <row r="5">
@@ -7906,28 +7906,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>371.4891160687799</v>
+        <v>412.7535660181567</v>
       </c>
       <c r="AB5" t="n">
-        <v>508.2877975484329</v>
+        <v>564.7476384282206</v>
       </c>
       <c r="AC5" t="n">
-        <v>459.7775235368142</v>
+        <v>510.8489164449192</v>
       </c>
       <c r="AD5" t="n">
-        <v>371489.1160687799</v>
+        <v>412753.5660181567</v>
       </c>
       <c r="AE5" t="n">
-        <v>508287.797548433</v>
+        <v>564747.6384282206</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.426500138764538e-06</v>
+        <v>4.124889416257446e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.415798611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>459777.5235368141</v>
+        <v>510848.9164449192</v>
       </c>
     </row>
     <row r="6">
@@ -8012,28 +8012,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>358.5173005412204</v>
+        <v>399.7817504905973</v>
       </c>
       <c r="AB6" t="n">
-        <v>490.5391872675144</v>
+        <v>546.9990281473019</v>
       </c>
       <c r="AC6" t="n">
-        <v>443.7228157107753</v>
+        <v>494.7942086188804</v>
       </c>
       <c r="AD6" t="n">
-        <v>358517.3005412204</v>
+        <v>399781.7504905973</v>
       </c>
       <c r="AE6" t="n">
-        <v>490539.1872675144</v>
+        <v>546999.028147302</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.462356965079136e-06</v>
+        <v>4.185843644531662e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.294270833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>443722.8157107753</v>
+        <v>494794.2086188804</v>
       </c>
     </row>
     <row r="7">
@@ -8118,28 +8118,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>359.6121989913889</v>
+        <v>400.8766489407658</v>
       </c>
       <c r="AB7" t="n">
-        <v>492.0372756305455</v>
+        <v>548.4971165103331</v>
       </c>
       <c r="AC7" t="n">
-        <v>445.077928623019</v>
+        <v>496.149321531124</v>
       </c>
       <c r="AD7" t="n">
-        <v>359612.198991389</v>
+        <v>400876.6489407658</v>
       </c>
       <c r="AE7" t="n">
-        <v>492037.2756305455</v>
+        <v>548497.116510333</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.463109864319338e-06</v>
+        <v>4.187123523340569e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.292100694444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>445077.928623019</v>
+        <v>496149.3215311239</v>
       </c>
     </row>
   </sheetData>
@@ -8415,28 +8415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>504.2869562857708</v>
+        <v>552.3277776000918</v>
       </c>
       <c r="AB2" t="n">
-        <v>689.9876611605491</v>
+        <v>755.7192322942589</v>
       </c>
       <c r="AC2" t="n">
-        <v>624.1362071831502</v>
+        <v>683.5944494226983</v>
       </c>
       <c r="AD2" t="n">
-        <v>504286.9562857708</v>
+        <v>552327.7776000919</v>
       </c>
       <c r="AE2" t="n">
-        <v>689987.6611605491</v>
+        <v>755719.2322942589</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.989673149150805e-06</v>
+        <v>3.587851524058446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.10460069444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>624136.2071831502</v>
+        <v>683594.4494226982</v>
       </c>
     </row>
     <row r="3">
@@ -8521,28 +8521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.6333850605918</v>
+        <v>361.5887760117902</v>
       </c>
       <c r="AB3" t="n">
-        <v>429.1270339683184</v>
+        <v>494.7417155102821</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.1717521299562</v>
+        <v>447.5242605563388</v>
       </c>
       <c r="AD3" t="n">
-        <v>313633.3850605917</v>
+        <v>361588.7760117901</v>
       </c>
       <c r="AE3" t="n">
-        <v>429127.0339683184</v>
+        <v>494741.7155102821</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.550878675612746e-06</v>
+        <v>4.599837891912819e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.661024305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>388171.7521299562</v>
+        <v>447524.2605563388</v>
       </c>
     </row>
     <row r="4">
@@ -8627,28 +8627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>309.200922368034</v>
+        <v>357.1563133192323</v>
       </c>
       <c r="AB4" t="n">
-        <v>423.0623429659078</v>
+        <v>488.6770245078715</v>
       </c>
       <c r="AC4" t="n">
-        <v>382.6858667249684</v>
+        <v>442.0383751513511</v>
       </c>
       <c r="AD4" t="n">
-        <v>309200.922368034</v>
+        <v>357156.3133192323</v>
       </c>
       <c r="AE4" t="n">
-        <v>423062.3429659078</v>
+        <v>488677.0245078715</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.571343536066093e-06</v>
+        <v>4.636740878113604e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH4" t="n">
-        <v>382685.8667249684</v>
+        <v>442038.3751513511</v>
       </c>
     </row>
   </sheetData>
@@ -8924,28 +8924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.7708974811792</v>
+        <v>397.0294999785605</v>
       </c>
       <c r="AB2" t="n">
-        <v>479.9402168535824</v>
+        <v>543.2332775760101</v>
       </c>
       <c r="AC2" t="n">
-        <v>434.1353961574007</v>
+        <v>491.3878559968485</v>
       </c>
       <c r="AD2" t="n">
-        <v>350770.8974811793</v>
+        <v>397029.4999785605</v>
       </c>
       <c r="AE2" t="n">
-        <v>479940.2168535824</v>
+        <v>543233.2775760101</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.35532973869601e-06</v>
+        <v>4.394292428360444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.772135416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>434135.3961574007</v>
+        <v>491387.8559968485</v>
       </c>
     </row>
     <row r="3">
@@ -9030,28 +9030,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.2388575183682</v>
+        <v>337.4121191611778</v>
       </c>
       <c r="AB3" t="n">
-        <v>398.4858534082209</v>
+        <v>461.6621470084509</v>
       </c>
       <c r="AC3" t="n">
-        <v>360.4549228373474</v>
+        <v>417.6017596448564</v>
       </c>
       <c r="AD3" t="n">
-        <v>291238.8575183682</v>
+        <v>337412.1191611778</v>
       </c>
       <c r="AE3" t="n">
-        <v>398485.8534082209</v>
+        <v>461662.1470084509</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.586641615501485e-06</v>
+        <v>4.825846453317852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.897569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>360454.9228373474</v>
+        <v>417601.7596448564</v>
       </c>
     </row>
   </sheetData>
@@ -15700,28 +15700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.1925814440305</v>
+        <v>335.8561024759018</v>
       </c>
       <c r="AB2" t="n">
-        <v>398.4225364417557</v>
+        <v>459.5331363330449</v>
       </c>
       <c r="AC2" t="n">
-        <v>360.3976487532956</v>
+        <v>415.6759387602259</v>
       </c>
       <c r="AD2" t="n">
-        <v>291192.5814440305</v>
+        <v>335856.1024759018</v>
       </c>
       <c r="AE2" t="n">
-        <v>398422.5364417557</v>
+        <v>459533.1363330449</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.544765742752292e-06</v>
+        <v>4.893678892407294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.35546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>360397.6487532957</v>
+        <v>415675.9387602259</v>
       </c>
     </row>
     <row r="3">
@@ -15806,28 +15806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.307273785221</v>
+        <v>334.9707948170923</v>
       </c>
       <c r="AB3" t="n">
-        <v>397.2112194459552</v>
+        <v>458.3218193372444</v>
       </c>
       <c r="AC3" t="n">
-        <v>359.3019381514803</v>
+        <v>414.5802281584105</v>
       </c>
       <c r="AD3" t="n">
-        <v>290307.273785221</v>
+        <v>334970.7948170923</v>
       </c>
       <c r="AE3" t="n">
-        <v>397211.2194459552</v>
+        <v>458321.8193372444</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.562100210842608e-06</v>
+        <v>4.927013717369586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.292534722222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>359301.9381514803</v>
+        <v>414580.2281584105</v>
       </c>
     </row>
   </sheetData>
@@ -16103,28 +16103,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>289.0554094321701</v>
+        <v>339.3824690782143</v>
       </c>
       <c r="AB2" t="n">
-        <v>395.4983634097535</v>
+        <v>464.3580666906437</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.7525546913652</v>
+        <v>420.0403845363278</v>
       </c>
       <c r="AD2" t="n">
-        <v>289055.4094321701</v>
+        <v>339382.4690782143</v>
       </c>
       <c r="AE2" t="n">
-        <v>395498.3634097535</v>
+        <v>464358.0666906437</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.323880207425565e-06</v>
+        <v>4.793233738764279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.99609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>357752.5546913652</v>
+        <v>420040.3845363278</v>
       </c>
     </row>
   </sheetData>
@@ -16400,28 +16400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>671.5472344521787</v>
+        <v>740.8334753889186</v>
       </c>
       <c r="AB2" t="n">
-        <v>918.840552750517</v>
+        <v>1013.641044293384</v>
       </c>
       <c r="AC2" t="n">
-        <v>831.1476999968221</v>
+        <v>916.9005656801637</v>
       </c>
       <c r="AD2" t="n">
-        <v>671547.2344521787</v>
+        <v>740833.4753889187</v>
       </c>
       <c r="AE2" t="n">
-        <v>918840.5527505169</v>
+        <v>1013641.044293384</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.70246398503028e-06</v>
+        <v>2.991162063280735e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.55208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>831147.699996822</v>
+        <v>916900.5656801637</v>
       </c>
     </row>
     <row r="3">
@@ -16506,28 +16506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>391.6133583567084</v>
+        <v>431.254351746009</v>
       </c>
       <c r="AB3" t="n">
-        <v>535.8226736656875</v>
+        <v>590.0612296581301</v>
       </c>
       <c r="AC3" t="n">
-        <v>484.6845097228792</v>
+        <v>533.7466140556945</v>
       </c>
       <c r="AD3" t="n">
-        <v>391613.3583567084</v>
+        <v>431254.351746009</v>
       </c>
       <c r="AE3" t="n">
-        <v>535822.6736656874</v>
+        <v>590061.2296581301</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.340691026155988e-06</v>
+        <v>4.112501797901425e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.129774305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>484684.5097228792</v>
+        <v>533746.6140556945</v>
       </c>
     </row>
     <row r="4">
@@ -16612,28 +16612,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>327.9514358087139</v>
+        <v>367.5070883434429</v>
       </c>
       <c r="AB4" t="n">
-        <v>448.7176226697172</v>
+        <v>502.8394115399622</v>
       </c>
       <c r="AC4" t="n">
-        <v>405.8926425412575</v>
+        <v>454.849123842134</v>
       </c>
       <c r="AD4" t="n">
-        <v>327951.4358087139</v>
+        <v>367507.0883434429</v>
       </c>
       <c r="AE4" t="n">
-        <v>448717.6226697172</v>
+        <v>502839.4115399622</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.532129595504604e-06</v>
+        <v>4.448851812421192e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.439670138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>405892.6425412575</v>
+        <v>454849.123842134</v>
       </c>
     </row>
     <row r="5">
@@ -16718,28 +16718,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>328.539223761057</v>
+        <v>368.094876295786</v>
       </c>
       <c r="AB5" t="n">
-        <v>449.5218600774874</v>
+        <v>503.6436489477323</v>
       </c>
       <c r="AC5" t="n">
-        <v>406.6201246595842</v>
+        <v>455.5766059604608</v>
       </c>
       <c r="AD5" t="n">
-        <v>328539.223761057</v>
+        <v>368094.876295786</v>
       </c>
       <c r="AE5" t="n">
-        <v>449521.8600774874</v>
+        <v>503643.6489477323</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.535477800935597e-06</v>
+        <v>4.454734477284193e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.428819444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>406620.1246595843</v>
+        <v>455576.6059604608</v>
       </c>
     </row>
   </sheetData>
@@ -17015,28 +17015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>965.7459265073376</v>
+        <v>1047.72383983209</v>
       </c>
       <c r="AB2" t="n">
-        <v>1321.376182350658</v>
+        <v>1433.541979971873</v>
       </c>
       <c r="AC2" t="n">
-        <v>1195.26589407023</v>
+        <v>1296.726745392162</v>
       </c>
       <c r="AD2" t="n">
-        <v>965745.9265073376</v>
+        <v>1047723.83983209</v>
       </c>
       <c r="AE2" t="n">
-        <v>1321376.182350658</v>
+        <v>1433541.979971873</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.387178248067542e-06</v>
+        <v>2.371920213728517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.84592013888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1195265.89407023</v>
+        <v>1296726.745392162</v>
       </c>
     </row>
     <row r="3">
@@ -17121,28 +17121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>496.5487307060574</v>
+        <v>557.9254896314075</v>
       </c>
       <c r="AB3" t="n">
-        <v>679.3998795359663</v>
+        <v>763.3782688491306</v>
       </c>
       <c r="AC3" t="n">
-        <v>614.5589085767729</v>
+        <v>690.5225182782983</v>
       </c>
       <c r="AD3" t="n">
-        <v>496548.7307060574</v>
+        <v>557925.4896314074</v>
       </c>
       <c r="AE3" t="n">
-        <v>679399.8795359663</v>
+        <v>763378.2688491306</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.071467641063509e-06</v>
+        <v>3.541978816902435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.94140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>614558.9085767729</v>
+        <v>690522.5182782983</v>
       </c>
     </row>
     <row r="4">
@@ -17227,28 +17227,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>397.9091656136662</v>
+        <v>449.1133586211724</v>
       </c>
       <c r="AB4" t="n">
-        <v>544.4368749060706</v>
+        <v>614.4967107485058</v>
       </c>
       <c r="AC4" t="n">
-        <v>492.4765836869876</v>
+        <v>555.850007126218</v>
       </c>
       <c r="AD4" t="n">
-        <v>397909.1656136662</v>
+        <v>449113.3586211724</v>
       </c>
       <c r="AE4" t="n">
-        <v>544436.8749060705</v>
+        <v>614496.7107485059</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.338882356007711e-06</v>
+        <v>3.999228178120588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.804253472222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>492476.5836869876</v>
+        <v>555850.0071262179</v>
       </c>
     </row>
     <row r="5">
@@ -17333,28 +17333,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>354.3476876248645</v>
+        <v>395.2940633685062</v>
       </c>
       <c r="AB5" t="n">
-        <v>484.8341389250169</v>
+        <v>540.8587766440739</v>
       </c>
       <c r="AC5" t="n">
-        <v>438.5622491750003</v>
+        <v>489.2399741012235</v>
       </c>
       <c r="AD5" t="n">
-        <v>354347.6876248645</v>
+        <v>395294.0633685061</v>
       </c>
       <c r="AE5" t="n">
-        <v>484834.1389250169</v>
+        <v>540858.7766440739</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.472399923050468e-06</v>
+        <v>4.227528338246188e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.328993055555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>438562.2491750003</v>
+        <v>489239.9741012235</v>
       </c>
     </row>
     <row r="6">
@@ -17439,28 +17439,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>352.1279462053478</v>
+        <v>393.0743219489893</v>
       </c>
       <c r="AB6" t="n">
-        <v>481.796990786754</v>
+        <v>537.8216285058111</v>
       </c>
       <c r="AC6" t="n">
-        <v>435.814962192389</v>
+        <v>486.4926871186122</v>
       </c>
       <c r="AD6" t="n">
-        <v>352127.9462053478</v>
+        <v>393074.3219489894</v>
       </c>
       <c r="AE6" t="n">
-        <v>481796.990786754</v>
+        <v>537821.6285058111</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.476765102925356e-06</v>
+        <v>4.234992309366144e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.313802083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>435814.962192389</v>
+        <v>486492.6871186122</v>
       </c>
     </row>
   </sheetData>
@@ -17736,28 +17736,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.4801009913095</v>
+        <v>369.3602594039687</v>
       </c>
       <c r="AB2" t="n">
-        <v>427.5490598254242</v>
+        <v>505.3750019411107</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.7443776245591</v>
+        <v>457.1427210541203</v>
       </c>
       <c r="AD2" t="n">
-        <v>312480.1009913095</v>
+        <v>369360.2594039687</v>
       </c>
       <c r="AE2" t="n">
-        <v>427549.0598254242</v>
+        <v>505375.0019411107</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.052894153546799e-06</v>
+        <v>4.400297714516217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>386744.3776245592</v>
+        <v>457142.7210541203</v>
       </c>
     </row>
   </sheetData>
@@ -18033,28 +18033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>403.038318691236</v>
+        <v>449.8442872206125</v>
       </c>
       <c r="AB2" t="n">
-        <v>551.4548084290651</v>
+        <v>615.4967995045538</v>
       </c>
       <c r="AC2" t="n">
-        <v>498.8247354842791</v>
+        <v>556.7546488150221</v>
       </c>
       <c r="AD2" t="n">
-        <v>403038.318691236</v>
+        <v>449844.2872206125</v>
       </c>
       <c r="AE2" t="n">
-        <v>551454.8084290652</v>
+        <v>615496.7995045538</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.222653228608157e-06</v>
+        <v>4.095088622641677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.20399305555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>498824.7354842791</v>
+        <v>556754.6488150221</v>
       </c>
     </row>
     <row r="3">
@@ -18139,28 +18139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>296.7963224259883</v>
+        <v>343.6022014468136</v>
       </c>
       <c r="AB3" t="n">
-        <v>406.0898220728746</v>
+        <v>470.1316906788148</v>
       </c>
       <c r="AC3" t="n">
-        <v>367.3331794048835</v>
+        <v>425.2629819543999</v>
       </c>
       <c r="AD3" t="n">
-        <v>296796.3224259883</v>
+        <v>343602.2014468136</v>
       </c>
       <c r="AE3" t="n">
-        <v>406089.8220728746</v>
+        <v>470131.6906788148</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.583741624002015e-06</v>
+        <v>4.760369630363829e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.778211805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>367333.1794048835</v>
+        <v>425262.9819544</v>
       </c>
     </row>
     <row r="4">
@@ -18245,28 +18245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>298.464405603767</v>
+        <v>345.2702846245924</v>
       </c>
       <c r="AB4" t="n">
-        <v>408.3721670673476</v>
+        <v>472.4140356732877</v>
       </c>
       <c r="AC4" t="n">
-        <v>369.3977005963753</v>
+        <v>427.3275031458918</v>
       </c>
       <c r="AD4" t="n">
-        <v>298464.405603767</v>
+        <v>345270.2846245924</v>
       </c>
       <c r="AE4" t="n">
-        <v>408372.1670673476</v>
+        <v>472414.0356732877</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.58353260032885e-06</v>
+        <v>4.759984518347781e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.778211805555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>369397.7005963753</v>
+        <v>427327.5031458918</v>
       </c>
     </row>
   </sheetData>
@@ -18542,28 +18542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>553.9303713910768</v>
+        <v>612.212956836491</v>
       </c>
       <c r="AB2" t="n">
-        <v>757.9119718205328</v>
+        <v>837.6567764731487</v>
       </c>
       <c r="AC2" t="n">
-        <v>685.5779169661137</v>
+        <v>757.7119893852205</v>
       </c>
       <c r="AD2" t="n">
-        <v>553930.3713910768</v>
+        <v>612212.956836491</v>
       </c>
       <c r="AE2" t="n">
-        <v>757911.9718205328</v>
+        <v>837656.7764731487</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.88657119822507e-06</v>
+        <v>3.37022176690686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.57552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>685577.9169661136</v>
+        <v>757711.9893852205</v>
       </c>
     </row>
     <row r="3">
@@ -18648,28 +18648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>331.8737415585157</v>
+        <v>380.357221908456</v>
       </c>
       <c r="AB3" t="n">
-        <v>454.0842944365133</v>
+        <v>520.4215311914957</v>
       </c>
       <c r="AC3" t="n">
-        <v>410.7471266868016</v>
+        <v>470.7532306707851</v>
       </c>
       <c r="AD3" t="n">
-        <v>331873.7415585158</v>
+        <v>380357.221908456</v>
       </c>
       <c r="AE3" t="n">
-        <v>454084.2944365133</v>
+        <v>520421.5311914957</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.491513650821428e-06</v>
+        <v>4.450907310810216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.765190972222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>410747.1266868016</v>
+        <v>470753.2306707851</v>
       </c>
     </row>
     <row r="4">
@@ -18754,28 +18754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>315.8046445852025</v>
+        <v>354.7450424033836</v>
       </c>
       <c r="AB4" t="n">
-        <v>432.0978470391007</v>
+        <v>485.3778172630423</v>
       </c>
       <c r="AC4" t="n">
-        <v>390.8590349708252</v>
+        <v>439.0540396155019</v>
       </c>
       <c r="AD4" t="n">
-        <v>315804.6445852025</v>
+        <v>354745.0424033836</v>
       </c>
       <c r="AE4" t="n">
-        <v>432097.8470391007</v>
+        <v>485377.8172630423</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.558025121407954e-06</v>
+        <v>4.569725199120282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.537326388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>390859.0349708252</v>
+        <v>439054.0396155019</v>
       </c>
     </row>
   </sheetData>
